--- a/500all/speech_level/speeches_CHRG-114hhrg97633.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97633.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="141">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400348</t>
   </si>
   <si>
-    <t>Edward R. Royce</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Royce. We will ask all of the members to take their seats. This hearing is called ``Women and Technology: Increasing Opportunity and Driving International Development.'' And around the world, women and girls are, frankly, the hardest hit by poverty. I think people realize that, but at the same time, empowering women can be the best way to lift them and their families out of that poverty. As our guest, Geena Davis, has said, ``believing in yourself is the greatest gift.''    Today, few tools have the potential to empower women and girls like the Internet. Whether it is access to online education, or whether it is job opportunities, or expanding that social network, the Internet can dramatically increase a woman's access to information, dramatically increase her opportunity for her and her family.    A recent survey in four developing countries found that of those women who reported using the Internet, 75 percent said they used the Internet ``to further their education.'' Many women surveyed also noted that the Internet and other mobile applications dramatically reduced the time and dramatically reduced the cost associated with tasks like learning about health concerns, arranging transportation, borrowing and saving money. Just ask the female fisherman in Kenya who now uses a popular mobile service to store and transfer money using just her cell phone that protects her business savings, protects her from theft. It enables her to spend her money as she chooses. Frankly, it empowers her.    Yet, while we take the Internet for granted here, more than 4 billion people, two-thirds of the world's population, lack access to that Internet. And women are more likely to be offline than men. Across the developing world, that is 200 million fewer women than men that have access to the Internet. And the disparity is particularly great in Asia and in the Middle East, and in sub-Saharan Africa, where women are half as likely as men to be online.    This means women are being excluded from one of the most powerful drivers of personal and economic opportunity of all time. And this is a problem for more than just those women who are left out. It means that families, communities, states, institutions, are all held back as well.    Study after study has shown that women spend more of their income on their families and communities, prioritizing things like what, food, medicine, education, that then improves the outcomes for their children. And in terms of broader economic growth, that means that it reduces the disparity in women's online access, and--what would the GDP boost be if we were able to do this to the portions of the world that do not have that kind of access? It would be $4 billion to $5 billion.    So it seems clear that failing to include women in the technology revolution is a big mistake. Likewise, failing to consider technology in our aid and in our diplomacy remains another costly oversight. The Internet is fast becoming as essential to a country's economic growth as electricity was, as ports are, as the rule of law is, and that is why the committee is developing legislation to ensure Internet access is a priority in U.S. development projects. For one, our aid agencies could better coordinate to lay fiberoptic cable under roads being constructed in the developing world. That is kind of a no-brainer.    In addition to having equal access to technology, it is important for women to have equal access to creating that technology. Globally, there are fewer women than men in science, in technology, in engineering, in math, in these STEM careers. However, there are some countries that have succeeded in having at least 50 percent of their STEM degrees awarded to women. Countries like the United Arab Emirates, Bulgaria, Oman, are pushing in that direction. They have 50 percent. We need to address what is holding women back from entering the sciences in so many other countries, including ours, I will add.    The Internet has changed the way that we buy, that we sell, that we educate, that we socialize. It has transacted more international commerce than any other marketplace, with trillions of dollars pumped across the net daily. It is a tremendous opportunity, but it is only an opportunity for those who have access to it. This hearing will help us understand what is needed so that more, especially women, more people can take advantage of this revolutionary technology, and in the process, bring a better life for their families and communities and more opportunity and hope.    So I now turn to the ranking member, Mr. Eliot Engel of New York, for his opening comments.</t>
   </si>
   <si>
     <t>400122</t>
   </si>
   <si>
-    <t>Eliot L. Engel</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Engel. Thank you very much, Mr. Chairman. Thank you for calling this hearing. Let me welcome. Thank you, Mr. Chairman.    Thank you, Mr. Chairman--that is better--for calling this hearing. Let me welcome our witnesses to the Foreign Affairs Committee. Thank you for your hard work, and shining a light on what I view as an intersection of two issues critical to our foreign policy: The challenges facing women and girls as the growing reach of modern technology. I am looking forward to a good discussion. I would like to note that for the second time this month, our committee has a panel made up entirely of women. Two weeks ago, Assistant Secretary Patterson and Assistant Secretary Nuland were here testifying on the crisis in Syria, and today we have this distinguished group.    It is amazing the way technology has changed the way we access numbers, respond to crises, or simply communicate with one another. Today, a coffee planter in East Africa with a smartphone can know what his produce is worth in London. A doctor anywhere in the world can pull up a patient's medical record with the push of a button. Classrooms with broadband access have a gateway to an incredible wealth of knowledge, information, and face-to-face connections with people a world away.    Of course, technology can also be exploited for nefarious purposes. We know that ISIS has taken advantage of everyday encryption technology, and even video games to communicate and orchestrate attacks like the one in Paris. These abuses underscore why we need a full understanding of the way technology is growing and changing the global landscape, but they should not blind us to the fact that technology has brought massive benefits to billions of people around the world.    At the same time, it is important to recognize that those benefits have not been evenly distributed. When we focus on access to technology, we see that women and girls are at a tremendous disadvantage, just as they are in so many other areas. Women in developing countries are 23 percent less likely than men to be online. In South Asia, the Middle East, and North Africa, the gap is nearly 35 percent. And in sub-Saharan Africa, it jumps to 45 percent.    Those are really shocking statistics. Some of this disparity is due to structural economic inequality. The cost of technology can be prohibitive in places where women are not full participants in their economies. Some of these problems stem from other norms and ideas about women and girls that keep them as second-class citizens. For example, across much of the developing world, Internet cafes are the easiest way to get online. The constraints of childcare and responsibilities at home make this a difficult option for some women. Access to mobile technology could help break down these barriers but, around the world, 200 million fewer women than men own mobile phones today.    It is unbelievable. But beyond these practical limitations in many countries, Internet cafes, and the Internet in general, are considered inappropriate for women and girls. Even in some of the most remote areas, Internet cafes are packed with boys and young men, but women and girls are left out. In Azerbaijan, only 14 percent of women have ever been online, 14 percent; while 70 percent of men have access to the Internet.    In India and Egypt, 1 in 5 women reported believing that the Internet is inappropriate for them. Can you imagine that? Their reasons for not getting online range from concerns that their families would disapprove to not knowing how the Internet could benefit their lives. The reality, of course, is that access to technology could not only improve the lives of individual women, but could help to lift entire communities and entire countries. We know that keeping women and girls on the sidelines of society is a major drag on growth and prosperity. When women become full economic and political participants, the results are huge in terms of driving economic progress, improving health and education, and raising standards of living. Getting more technology in the hands of more women is a critical way to tap that potential.    According to a recent study sponsored by Intel, getting an additional 150 million women online would add $13 billion to $18 billion to the combined annual GDPs of 144 developing countries. They would help countries become stronger, more stable partners on the world stage, and add fuel to the global economy. So the question isn't why should we break down the gender divide when it comes to technology, but how do we break down that divide?    What education and training efforts will best provide women with the knowledge they need to use technology for their benefit? What kind of partnerships will help make technology more accessible and affordable? How do we address the out-of-date taboo that technology is somehow inappropriate for women and girls? It is unbelievable. I hope our witnesses can offer their guidance in these areas, because I honestly believe that expanding access to technology could help solve so many problems.    I thank you, again, for all you do, all of you. I look forward to your testimony and I yield back, Mr. Chairman.</t>
   </si>
   <si>
@@ -73,27 +67,18 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Davis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Davis. Thank you. Thank you, Chairman Royce, very much, and Ranking Member Engel and committee members. It is a great honor to be invited to testify here at this hearing on ``Women and Technology: Increasing Opportunity and Driving International Development.''    The efforts of the committee to ensure that women and girls are included and have the same opportunities as men and boys around the world are so appreciated, especially when it comes to the Internet. I have spent most of my adult life advocating for women and girls as a trustee for the Women's Sports Foundation, as chair of the California Commission on the Status of Women and Girls, as an official partner with U.N. Women, and, as the chairman mentioned, ITU's Special Envoy for Women and Girls and ICTs.    The empowerment of women and girls is an issue I am extremely passionate about, and it is why I founded my research institute, which studies gender in children's media to help women and girls to be seen, and heard, and valued across the globe. Technology is having a huge impact on my community, the entertainment industry, in terms of how content creators are using digital platforms to not only serve as the gateway for delivering movies and television programming, but also for the creation of new ways of building global communities.    And the Internet is having a profound impact on how the world engages with media, and can provide endless opportunities to empower women and girls, and to help create a systemic cultural shift by improving how they are portrayed and represented. These are the tools that will ultimately raise the value of women and girls in society.    My institute has sponsored the largest body of research ever done on gender images in children's media, covering over a 20-year span, and we worked side by side with the leading content creators to dramatically improve how women and girls are represented in media targeting children 11 and under. Our study of the careers of female characters in family films and in prime time in children's TV, conducted by Dr. Stacy Smith of the Annenberg School for Communication and Journalism, shows that women are missing from critical occupational sectors, such as the STEM fields.    Out of nearly 6,000 speaking characters in family films, males held 84 percent of all STEM jobs. This calculates to a ratio of five male STEM characters for every one female STEM character. No female leads or co-leads were shown with STEM careers. Looking across the categories of computer science and engineering, the ratio of males to females in these areas was 14.25 to 1. And in television, characters with STEM jobs were 79 percent male, and 21 percent female.    The vast gender inequality in media aimed at children is extremely significant as television and movie images wield enormous influence on how cultures perceive the value of women and girls, and in establishing societal norms. Improving these perceptions can be the real game-changer in achieving greater empowerment and participation of girls and women in the technology sector.    My institute's tag line is: ``If they see it, they can be it.'' Technology has tremendous potential to transform women's and girls' lives, whether through STEM career choices, or by access to services such as e-health, e-education, e-commerce, e-banking, and other applications that can help women and girls address their day-to-day challenges. We need to vastly improve the gender divide. As the chairman pointed out, there were 200 million fewer women online than men at the end of 2013. We need to bridge the opportunities gap. Women earned only 18 percent of U.S. computer science degrees. Women make up less than 20 percent of the U.S. ITC workforce, and only 30 percent of the European ICT workforce. This cannot stand, given the predicted skills shortfall in the ICT sector of at least 2 million jobs globally by 2020.    Encouraging women and girls to pursue careers in tech is critical to closing the economic gender gap. Studies from the ITU have demonstrated that companies that have a gender balance of women working in high-level positions on corporate boards have shown improved financial results. Women and girls will seek the skills to pursue these career opportunities if they can see other women in these roles and be inspired by them. The lack of real-world female role models in tech careers means that it is imperative for fictional female characters in STEM fields to be shown in entertainment media aimed at children.    Technology, and particularly broadband, will be absolutely crucial for achieving all 17 of the U.N. sustainable development goals, and all three pillars of sustainable development: Economic development, social inclusion, and environmental protection. They need technology as key catalysts.    We have the opportunity to ensure that women and girls are fully included in the expansion of the digital world, and that their voices and presence are shaping the agenda of meeting SDG-5, which addresses gender equality.    Access to digital technology will be key to meeting this goal by providing women with the means to educate themselves and their children, to improve their own health and the health of their families and communities, to start their own businesses, to keep themselves safe, and to innovate to shape the future that they want.    Because I am privileged to live in this country as the mother of three children, I can encourage them to engage in any type of interest that they may want to pursue. I want to see a world where all children have the same possibilities and opportunities; a world where women and girls are valued equally to men and boys, and have the freedom to pursue and achieve their dreams.    Chairman Royce and Ranking Member Engel, once again, thank you very much for this opportunity to testify.    [The prepared statement of Ms. Davis appears in the appendix.]</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Royce. Thank you. Ms. Jorge.</t>
   </si>
   <si>
-    <t>Jorge</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Jorge. Thank you, Chairman Royce, Ranking Member Engel, distinguished members of the committee. Thank you for the opportunity to submit a statement to the committee on opportunities for driving international development through increasing women's access to technology.    This issue is critical if we are to achieve the United Nation's Sustainable Development Goals, agreed in September of this year. The United States can and should play a leading role in driving this agenda forward. The Alliance for Affordable Internet, A4AI, is the world's broadest technology sector alliance working to reduce the cost of broadband in developing countries, and through high-level advocacy and direct in-country engagement. The over 80 members or organizations of the alliance identify, research, and advocate for the policy and regulatory reforms needed to bring prices down and increase access to the Internet.    The incredible growth of ICTs over the past decade has transformed Internet access into a force that is critical for sustainable global development. Indeed, President Obama declared earlier this year: ``The Internet is not a luxury. It is a necessity.'' Research has shown the benefits of broadband penetration. Investing in increasing broadband penetration in developing countries could lead to a return on investment of up to $21 for each $1 spent. Of course, the benefits of connectivity go far beyond the economic, bringing better health care to rural, conflict-affected, and other underserved areas, helping farmers cope with climate change, and connecting millions of children and young people to free online courses and learning materials. E-governance and social media are enabling citizens to participate more actively in civic life, while also streamlining delivery of public services, a move that, in Africa alone, could result in technology-related productivity gains of $10 billion to $25 billion annually by 2025.    Today, over 60 percent of the world's population, equivalent to 4.3 billion people, as was already said, remain offline, and these billions of people excluded from the life-changing possibilities of the Internet are predominantly female, and nearly all in the developing world. Mobile broadband, the primary means by which most citizens in the developing world access the Internet, has been critical for expanding Internet access. Mobile broadband across the developed world is widely spread with penetration rates reaching nearly 90 percent. Yet, this rate dropped to about 17 percent in Africa. This digital divide exacerbates existing economic and social inequalities, and stifles development across the globe by keeping women and other marginalized populations, those who arguably stand the most to benefit from an online connection, from accessing the empowering potential of the Web.    While an entry-level broadband connection costs about 1 percent of monthly incomes across the developed world, it costs about 10 percent for most in developing countries, and can reach over 100 percent of their incomes in many countries.    High prices hit certain groups harder. Excuse me, high prices hit certain groups harder than others, and income inequalities mask the true scale of the problem in many countries. For billions living in poverty, earning less than $2 a day, the cost of a basic broadband connection is prohibitive. Women are nearly 50 percent less likely to access the Internet than men in the same community. The Web Foundation study found that women are 30 to 50 percent less likely than men to use the Internet to increase their income, or to participate in public life. We need to change that. We need to change the gender gap. We need to work together to change the conditions in which women can have access to the Internet.    Skills and relevance are also another barrier important to address. To boost economic growth, empower democratic governance, and advance global development, cannot be overlooked as a key component of U.S. foreign policy, and there is a huge potential for the Internet to have a role in that space. Here are some concrete actions that the U.S. Government can support and invest in: Support policy reform, based on inclusive multi-stakeholder processes that will lead to market growth and lower costs; coordinate broadband expansion strategies with development in the energy sector; invest in International Telecommunications Union, a U.N. agency, that does efforts to expand collection of gender indicators and support national statistics agencies to do the same; support the development of inclusive and holistic national ICT and broadband plans, that address all aspects of the access and use ecosystem; recognize barriers faced by women, and ensure privacy and safety online; education programs and consumer campaigns to increase awareness of the utility of the Internet, as well as training on basic skills and safety online will be critical to ensuring women can access and fully utilize a safe and open Web without any fear of retaliation. Incorporate digital skills education into education programs from primary school onwards. And finally, develop and support programs that provide public access and to target underserved populations.    I look forward to our discussion here today and your questions. And I thank you again for this opportunity.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Royce. Thank you, Ms. Jorge. Ms. Warner.</t>
   </si>
   <si>
-    <t>Warner</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Warner. Thank you, Chairman Royce, Ranking Member Engel, and distinguished members of the committee. On behalf of IREX, I am very honored to have the opportunity today to discuss our experience and the important relationship between women and information and communication technology in the developing world. I want to also thank my colleagues for their compelling remarks this morning. And I will try to--you may find some overlap because I think we have some similar recommendations.    Since 1968, IREX has worked in over 125 countries to build just, prosperous, and inclusive societies, and we use technology across much of our programming. Our work is supported by the generosity of the American people through the U.S. Department of State, the U.S. Agency for International Development, as well as private donors, including the Bill &amp; Melinda Gates Foundation and the Carnegie Corporation of New York. Our approach is to focus holistically on both IT access, but also broadening digital literacy. I know we talked a lot this morning about why the issue is important, including improving GDP, and we have also talked about the alarming disparity for women and girls, the overall less access to the Internet, less mobile ownership. I want to highlight also, though, that less training and exposure even where access is available, is an important factor creating the digital divide. And according to the 2015 World Wide Web Foundation report, women are 1.6 times more likely to report a pure lack of skills as a barrier to Internet use. And I think we would all agree that nations cannot develop and grow unless they engage their full human resource potential, and closing the gender digital divide will be key to achieving this.    So I would like to share a few things of what we have learned at IREX. First, women and girls need safe public access points. We know that girls and women often choose public libraries because they are perceived as safe, reliable, and affordable. And we have partnered with the Gates Foundation in 11 countries to turn public institutions, like libraries, into Internet access points. And we are pairing that with providing access and training librarians to support them.    Second, it is really important to introduce girls to technology as early as possible, and definitely no later than their adolescence. The after-school tech clubs IREX has created in eight countries have helped girls gain digital skills with positive results into young adulthood, including increased confidence and employability. By supporting girls early on with digital literacy skills, we can help stem a lifetime of gender disparity.    Third, we need to invest and support infomediaries, and by this, we mean trusted community members, teachers, librarians, other adults who can help coach and train both younger and older women to use technology effectively and positively. Infomediaries can also help them filter the massive amounts of information that is available. In addition to working with librarians, we have partnered with the State Department to expand the use of technology by master teachers from across the developing world, the overwhelming majority of whom have had no prior training in using instructional technology in the classroom. The goal is to make technology a regular part of learning and not only a special subject or an elective.    And finally, we have learned that women also need to find relevant and valuable information to them, and that is both available in their local language, but in addition, it is information they can use in their everyday lives.    In partnerships with USAID and a local Jordanian research organization, we have just recently launched a gender clearinghouse. This is the first of its kind in Jordan, and it is allowing women to access information on their human rights.    The core of what we need to achieve gender parity in technology around the globe exists today, and so we have a few recommendations. First, we need to expand the notion of literacy to include digital literacy. ICT needs to be included in formal education. It is not a side subject. So while we used to have the three Rs, I think now we need literacy, numeracy, and digital literacy. We need them all working together, and we need to introduce that as early as possible.    Second, we should prioritize investments in community institutions like schools and libraries where we can build on existing infrastructure for public access. For example, there are 320,000 libraries in the world, and 70 percent of them are in developing countries. Imagine if each was connected to the Internet, and staffed with a skilled infomediary to support Internet access by women and girls.    Third, we need to balance the overall expanding of IT access with better digital literacy and skills, and ongoing coaching, so that women and girls can use this technology to better their economic, family, and life outcomes, so as to not inadvertently, without those skills, expand the divide rather than shrink it.    And finally, we should look across all of the work we are doing in the U.S. Government and among our development partners, and make sure that everything we do is taking the gender digital divide into account. Whether we are working on health, or food security, or environmental issues, are we looking at everything, and making sure that we are addressing this wherever it is possible?    And increasing mobile subscriptions alone will not actually purely equalize this gender divide. Governments, international agencies, nonprofits, and private enterprises need to work together. And I thank the committee for this opportunity.</t>
   </si>
   <si>
@@ -115,9 +100,6 @@
     <t>412186</t>
   </si>
   <si>
-    <t>Albio Sires</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Sires. Thank you, Mr. Chairman, and thank you for being here. This is a very important issue for empowering women in many of these countries. I was just wondering, when you talk about this stigma that in some of these countries have, women using the Internet, and getting good at it, would you call it jealousy, just from the male role in some of these countries, or what is actually the stigma that you are talking about? Anyone?</t>
   </si>
   <si>
@@ -145,9 +127,6 @@
     <t>400344</t>
   </si>
   <si>
-    <t>Ileana Ros-Lehtinen</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Ros-Lehtinen. Thank you.</t>
   </si>
   <si>
@@ -232,9 +211,6 @@
     <t>412525</t>
   </si>
   <si>
-    <t>Ted S. Yoho</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Yoho. Thank you, Mr. Chairman. I appreciate the panelists being here. And, you know, there is a paradigm shift going on. I am a veterinarian by trade, and I graduated in 1983. And up to the 1970s, it was a male-dominated field. And when I went to vet school, it was about 65 percent male and 35 percent female. Now it is about 10 percent male, 90 percent female, and it has changed. And I think a lot of professions have done that. And, I think, in large part, you know, what they see on television. So I commend you for doing that. And, of course, your role in ``The Long Kiss Good Night,'' you know, being a housewife that was a chef. I still remember that chefs do those things, you know. And that was a great movie, and I am sure that has inspired a lot of people.</t>
   </si>
   <si>
@@ -295,9 +271,6 @@
     <t>412435</t>
   </si>
   <si>
-    <t>William R. Keating</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Keating. Thank you, Mr. Chairman. It is great to welcome a graduate of Wareham High School, in Massachusetts, Ms. Davis. And it is a pleasure to be here. I am in the next town over in Bourne, and I am sure we are all proud of your success and the work you are doing in this regard.    I wanted to touch base on something I think is just as important too, and that is how important your work is for males and young men. I mean, a mother is a child's first teacher, and particularly in other countries in the world as well as domestically. Empowering mothers to have this information, to have this access, we have found with investments in USAID, that money is better served empowering women and mothers, because it goes better to the health of the children, the welfare of the child, but also the education of that child. So can you speak a little bit about how empowering this is for mothers--how it is for young boys having a mother that is more in a position of having these resources?</t>
   </si>
   <si>
@@ -325,9 +298,6 @@
     <t>400606</t>
   </si>
   <si>
-    <t>Matt Salmon</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Salmon. Thank you, Mr. Chairman.    First and foremost, I want to go on the record agreeing wholeheartedly with Mr. Engel that Carly Fiorina could make a great President of the United States. Just having a little fun.</t>
   </si>
   <si>
@@ -361,9 +331,6 @@
     <t>412529</t>
   </si>
   <si>
-    <t>Lois Frankel</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Frankel. Thank you, Mr. Royce. And thank you so much for this hearing. I consider myself pretty well informed on women's issues, but I have to say, this is very shocking to me, and I thank all of you for being here, because I know I often--every day I say to myself, how did we live without the Internet? It is really something.    And, you know, even my own--my mother is 90 years old, and she loves her pink iPad. I mean, she is on that iPad all day. And, you know, my niece has this little 2-year-old, I don't think he is even 2 years old, and we go out and he grabs the phone and he is playing games. So it is just--it is--I will say it is pervasive, but--so, anyway, I have a few questions.    I just want to say to Ms. Davis, I am a great fan. I am glad to see you are alive and well. I have been worried about you. I know you went over the cliff--I see you go over the cliff and then I think you just went blind and died on Grey's Anatomy. Did you live or did you die?</t>
   </si>
   <si>
@@ -395,9 +362,6 @@
   </si>
   <si>
     <t>412521</t>
-  </si>
-  <si>
-    <t>Alan S. Lowenthal</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Lowenthal. From California. Thank you, Mr. Chair. And thank you, witnesses, for being here. And I apologize for coming a little late.    Last night as I was going through preparing for this, and I know we are kind of looking at both developing and developed nations and kind of--I was shocked by something, and it was the last paragraph of the memorandum that was put out by the chair of the committee, where it said that in the United States, fewer women are now completing technology engineering degrees than what occurred 30 years ago. So there are fewer now, and half of all that enter technology companies leave them by mid career. These are staggering statistics, and it really just knocked me for a loop when I read that.    And so what are we going to do from a policy standpoint here within the United States to really reverse this? Less than 30 years ago: It is just a shock. And I just want to know if you can help us, as we begin to kind of grapple with this, both the idea of both access, but also retention. How are we going to deal with this issue, and--which is just shocking, absolutely shocking. And I ask for any help, me not knowing kind of where to go from here.</t>
@@ -871,11 +835,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -895,13 +857,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -923,11 +883,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -947,13 +905,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -975,11 +931,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -999,13 +953,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1027,11 +979,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1051,13 +1001,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1079,11 +1027,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1103,13 +1049,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1131,11 +1075,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1155,13 +1097,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1183,11 +1123,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1207,13 +1145,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" t="s">
-        <v>33</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1233,13 +1169,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1259,13 +1193,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G17" t="s">
-        <v>33</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1285,13 +1217,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1311,13 +1241,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
         <v>32</v>
-      </c>
-      <c r="G19" t="s">
-        <v>33</v>
-      </c>
-      <c r="H19" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1337,13 +1265,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1363,13 +1289,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>32</v>
-      </c>
-      <c r="G21" t="s">
-        <v>33</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1391,11 +1315,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1415,13 +1337,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>42</v>
-      </c>
-      <c r="G23" t="s">
-        <v>43</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1441,13 +1361,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
-      </c>
-      <c r="G24" t="s">
-        <v>33</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1467,13 +1385,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>42</v>
-      </c>
-      <c r="G25" t="s">
-        <v>43</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1493,13 +1409,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1519,13 +1433,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>42</v>
-      </c>
-      <c r="G27" t="s">
-        <v>43</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1545,13 +1457,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1571,13 +1481,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>42</v>
-      </c>
-      <c r="G29" t="s">
+        <v>36</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
         <v>43</v>
-      </c>
-      <c r="H29" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1597,13 +1505,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1623,13 +1529,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>42</v>
-      </c>
-      <c r="G31" t="s">
-        <v>43</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1649,13 +1553,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1675,13 +1577,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>42</v>
-      </c>
-      <c r="G33" t="s">
-        <v>43</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1701,13 +1601,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1727,13 +1625,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>42</v>
-      </c>
-      <c r="G35" t="s">
-        <v>43</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1753,13 +1649,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1779,13 +1673,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>42</v>
-      </c>
-      <c r="G37" t="s">
-        <v>43</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1805,13 +1697,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1831,13 +1721,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>42</v>
-      </c>
-      <c r="G39" t="s">
-        <v>43</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1857,13 +1745,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1883,13 +1769,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>42</v>
-      </c>
-      <c r="G41" t="s">
-        <v>43</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1909,13 +1793,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1935,13 +1817,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>42</v>
-      </c>
-      <c r="G43" t="s">
-        <v>43</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1963,11 +1843,9 @@
       <c r="F44" t="s">
         <v>11</v>
       </c>
-      <c r="G44" t="s">
-        <v>12</v>
-      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1987,13 +1865,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2013,13 +1889,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>18</v>
-      </c>
-      <c r="G46" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2039,13 +1913,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2065,13 +1937,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>18</v>
-      </c>
-      <c r="G48" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2091,13 +1961,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2117,13 +1985,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>18</v>
-      </c>
-      <c r="G50" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2143,13 +2009,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2169,13 +2033,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>18</v>
-      </c>
-      <c r="G52" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2195,13 +2057,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2223,11 +2083,9 @@
       <c r="F54" t="s">
         <v>11</v>
       </c>
-      <c r="G54" t="s">
-        <v>12</v>
-      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2247,13 +2105,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>71</v>
-      </c>
-      <c r="G55" t="s">
-        <v>72</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2273,13 +2129,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>18</v>
-      </c>
-      <c r="G56" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2299,13 +2153,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>71</v>
-      </c>
-      <c r="G57" t="s">
-        <v>72</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2325,13 +2177,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>18</v>
-      </c>
-      <c r="G58" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2351,13 +2201,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>71</v>
-      </c>
-      <c r="G59" t="s">
-        <v>72</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2377,13 +2225,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>18</v>
-      </c>
-      <c r="G60" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2403,13 +2249,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
+        <v>64</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
         <v>71</v>
-      </c>
-      <c r="G61" t="s">
-        <v>72</v>
-      </c>
-      <c r="H61" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2429,13 +2273,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>18</v>
-      </c>
-      <c r="G62" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2455,13 +2297,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>71</v>
-      </c>
-      <c r="G63" t="s">
-        <v>72</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2481,13 +2321,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>18</v>
-      </c>
-      <c r="G64" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2507,13 +2345,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>71</v>
-      </c>
-      <c r="G65" t="s">
-        <v>72</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2533,13 +2369,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>18</v>
-      </c>
-      <c r="G66" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2559,13 +2393,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>71</v>
-      </c>
-      <c r="G67" t="s">
-        <v>72</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2585,13 +2417,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>18</v>
-      </c>
-      <c r="G68" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2611,13 +2441,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>71</v>
-      </c>
-      <c r="G69" t="s">
-        <v>72</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2637,13 +2465,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>18</v>
-      </c>
-      <c r="G70" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2663,13 +2489,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>71</v>
-      </c>
-      <c r="G71" t="s">
-        <v>72</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2689,13 +2513,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>18</v>
-      </c>
-      <c r="G72" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2715,13 +2537,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>71</v>
-      </c>
-      <c r="G73" t="s">
-        <v>72</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2741,13 +2561,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>18</v>
-      </c>
-      <c r="G74" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2769,11 +2587,9 @@
       <c r="F75" t="s">
         <v>11</v>
       </c>
-      <c r="G75" t="s">
-        <v>12</v>
-      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2793,13 +2609,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>92</v>
-      </c>
-      <c r="G76" t="s">
-        <v>93</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2819,13 +2633,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>18</v>
-      </c>
-      <c r="G77" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2845,13 +2657,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>92</v>
-      </c>
-      <c r="G78" t="s">
-        <v>93</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2871,13 +2681,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>18</v>
-      </c>
-      <c r="G79" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2897,13 +2705,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>92</v>
-      </c>
-      <c r="G80" t="s">
-        <v>93</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2923,13 +2729,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>18</v>
-      </c>
-      <c r="G81" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2949,13 +2753,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>92</v>
-      </c>
-      <c r="G82" t="s">
-        <v>93</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2977,11 +2779,9 @@
       <c r="F83" t="s">
         <v>11</v>
       </c>
-      <c r="G83" t="s">
-        <v>12</v>
-      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3001,13 +2801,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>102</v>
-      </c>
-      <c r="G84" t="s">
-        <v>103</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3029,11 +2827,9 @@
       <c r="F85" t="s">
         <v>11</v>
       </c>
-      <c r="G85" t="s">
-        <v>12</v>
-      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3053,13 +2849,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>102</v>
-      </c>
-      <c r="G86" t="s">
-        <v>103</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3079,13 +2873,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>18</v>
-      </c>
-      <c r="G87" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3105,13 +2897,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>102</v>
-      </c>
-      <c r="G88" t="s">
-        <v>103</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3131,13 +2921,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>18</v>
-      </c>
-      <c r="G89" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3157,13 +2945,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>102</v>
-      </c>
-      <c r="G90" t="s">
-        <v>103</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3183,13 +2969,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>18</v>
-      </c>
-      <c r="G91" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3209,13 +2993,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>18</v>
-      </c>
-      <c r="G92" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3235,13 +3017,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
+        <v>93</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
         <v>102</v>
-      </c>
-      <c r="G93" t="s">
-        <v>103</v>
-      </c>
-      <c r="H93" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3263,11 +3043,9 @@
       <c r="F94" t="s">
         <v>11</v>
       </c>
-      <c r="G94" t="s">
-        <v>12</v>
-      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3287,13 +3065,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>114</v>
-      </c>
-      <c r="G95" t="s">
-        <v>115</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3313,13 +3089,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>18</v>
-      </c>
-      <c r="G96" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3339,13 +3113,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>114</v>
-      </c>
-      <c r="G97" t="s">
-        <v>115</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3365,13 +3137,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>18</v>
-      </c>
-      <c r="G98" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3391,13 +3161,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>114</v>
-      </c>
-      <c r="G99" t="s">
-        <v>115</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3417,13 +3185,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>18</v>
-      </c>
-      <c r="G100" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3443,13 +3209,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>114</v>
-      </c>
-      <c r="G101" t="s">
-        <v>115</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3469,13 +3233,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>18</v>
-      </c>
-      <c r="G102" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3495,13 +3257,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>114</v>
-      </c>
-      <c r="G103" t="s">
-        <v>115</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3523,11 +3283,9 @@
       <c r="F104" t="s">
         <v>11</v>
       </c>
-      <c r="G104" t="s">
-        <v>12</v>
-      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3547,13 +3305,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>126</v>
-      </c>
-      <c r="G105" t="s">
-        <v>127</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3573,13 +3329,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>18</v>
-      </c>
-      <c r="G106" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3599,13 +3353,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>126</v>
-      </c>
-      <c r="G107" t="s">
-        <v>127</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3625,13 +3377,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>18</v>
-      </c>
-      <c r="G108" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3651,13 +3401,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>126</v>
-      </c>
-      <c r="G109" t="s">
-        <v>127</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3677,13 +3425,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G110" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3703,13 +3449,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>126</v>
-      </c>
-      <c r="G111" t="s">
-        <v>127</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3729,13 +3473,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>18</v>
-      </c>
-      <c r="G112" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3755,13 +3497,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>126</v>
-      </c>
-      <c r="G113" t="s">
-        <v>127</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3781,13 +3521,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>18</v>
-      </c>
-      <c r="G114" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3807,13 +3545,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>126</v>
-      </c>
-      <c r="G115" t="s">
-        <v>127</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3833,13 +3569,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>18</v>
-      </c>
-      <c r="G116" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3859,13 +3593,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>126</v>
-      </c>
-      <c r="G117" t="s">
+        <v>115</v>
+      </c>
+      <c r="G117" t="s"/>
+      <c r="H117" t="s">
         <v>127</v>
-      </c>
-      <c r="H117" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3885,13 +3617,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>18</v>
-      </c>
-      <c r="G118" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3911,13 +3641,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>126</v>
-      </c>
-      <c r="G119" t="s">
-        <v>127</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3937,13 +3665,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>18</v>
-      </c>
-      <c r="G120" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3963,13 +3689,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>126</v>
-      </c>
-      <c r="G121" t="s">
-        <v>127</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3989,13 +3713,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>18</v>
-      </c>
-      <c r="G122" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4015,13 +3737,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>126</v>
-      </c>
-      <c r="G123" t="s">
-        <v>127</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4041,13 +3761,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>18</v>
-      </c>
-      <c r="G124" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4067,13 +3785,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>126</v>
-      </c>
-      <c r="G125" t="s">
-        <v>127</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4093,13 +3809,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>18</v>
-      </c>
-      <c r="G126" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4119,13 +3833,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>126</v>
-      </c>
-      <c r="G127" t="s">
-        <v>127</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4145,13 +3857,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>18</v>
-      </c>
-      <c r="G128" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4171,13 +3881,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>126</v>
-      </c>
-      <c r="G129" t="s">
-        <v>127</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4197,13 +3905,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>18</v>
-      </c>
-      <c r="G130" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4223,13 +3929,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>126</v>
-      </c>
-      <c r="G131" t="s">
-        <v>127</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4251,11 +3955,9 @@
       <c r="F132" t="s">
         <v>11</v>
       </c>
-      <c r="G132" t="s">
-        <v>12</v>
-      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg97633.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97633.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="163">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>400348</t>
   </si>
   <si>
+    <t>Royce</t>
+  </si>
+  <si>
+    <t>Edward</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Chairman Royce. We will ask all of the members to take their seats. This hearing is called ``Women and Technology: Increasing Opportunity and Driving International Development.'' And around the world, women and girls are, frankly, the hardest hit by poverty. I think people realize that, but at the same time, empowering women can be the best way to lift them and their families out of that poverty. As our guest, Geena Davis, has said, ``believing in yourself is the greatest gift.''    Today, few tools have the potential to empower women and girls like the Internet. Whether it is access to online education, or whether it is job opportunities, or expanding that social network, the Internet can dramatically increase a woman's access to information, dramatically increase her opportunity for her and her family.    A recent survey in four developing countries found that of those women who reported using the Internet, 75 percent said they used the Internet ``to further their education.'' Many women surveyed also noted that the Internet and other mobile applications dramatically reduced the time and dramatically reduced the cost associated with tasks like learning about health concerns, arranging transportation, borrowing and saving money. Just ask the female fisherman in Kenya who now uses a popular mobile service to store and transfer money using just her cell phone that protects her business savings, protects her from theft. It enables her to spend her money as she chooses. Frankly, it empowers her.    Yet, while we take the Internet for granted here, more than 4 billion people, two-thirds of the world's population, lack access to that Internet. And women are more likely to be offline than men. Across the developing world, that is 200 million fewer women than men that have access to the Internet. And the disparity is particularly great in Asia and in the Middle East, and in sub-Saharan Africa, where women are half as likely as men to be online.    This means women are being excluded from one of the most powerful drivers of personal and economic opportunity of all time. And this is a problem for more than just those women who are left out. It means that families, communities, states, institutions, are all held back as well.    Study after study has shown that women spend more of their income on their families and communities, prioritizing things like what, food, medicine, education, that then improves the outcomes for their children. And in terms of broader economic growth, that means that it reduces the disparity in women's online access, and--what would the GDP boost be if we were able to do this to the portions of the world that do not have that kind of access? It would be $4 billion to $5 billion.    So it seems clear that failing to include women in the technology revolution is a big mistake. Likewise, failing to consider technology in our aid and in our diplomacy remains another costly oversight. The Internet is fast becoming as essential to a country's economic growth as electricity was, as ports are, as the rule of law is, and that is why the committee is developing legislation to ensure Internet access is a priority in U.S. development projects. For one, our aid agencies could better coordinate to lay fiberoptic cable under roads being constructed in the developing world. That is kind of a no-brainer.    In addition to having equal access to technology, it is important for women to have equal access to creating that technology. Globally, there are fewer women than men in science, in technology, in engineering, in math, in these STEM careers. However, there are some countries that have succeeded in having at least 50 percent of their STEM degrees awarded to women. Countries like the United Arab Emirates, Bulgaria, Oman, are pushing in that direction. They have 50 percent. We need to address what is holding women back from entering the sciences in so many other countries, including ours, I will add.    The Internet has changed the way that we buy, that we sell, that we educate, that we socialize. It has transacted more international commerce than any other marketplace, with trillions of dollars pumped across the net daily. It is a tremendous opportunity, but it is only an opportunity for those who have access to it. This hearing will help us understand what is needed so that more, especially women, more people can take advantage of this revolutionary technology, and in the process, bring a better life for their families and communities and more opportunity and hope.    So I now turn to the ranking member, Mr. Eliot Engel of New York, for his opening comments.</t>
   </si>
   <si>
     <t>400122</t>
   </si>
   <si>
+    <t>Engel</t>
+  </si>
+  <si>
+    <t>Eliot</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Engel. Thank you very much, Mr. Chairman. Thank you for calling this hearing. Let me welcome. Thank you, Mr. Chairman.    Thank you, Mr. Chairman--that is better--for calling this hearing. Let me welcome our witnesses to the Foreign Affairs Committee. Thank you for your hard work, and shining a light on what I view as an intersection of two issues critical to our foreign policy: The challenges facing women and girls as the growing reach of modern technology. I am looking forward to a good discussion. I would like to note that for the second time this month, our committee has a panel made up entirely of women. Two weeks ago, Assistant Secretary Patterson and Assistant Secretary Nuland were here testifying on the crisis in Syria, and today we have this distinguished group.    It is amazing the way technology has changed the way we access numbers, respond to crises, or simply communicate with one another. Today, a coffee planter in East Africa with a smartphone can know what his produce is worth in London. A doctor anywhere in the world can pull up a patient's medical record with the push of a button. Classrooms with broadband access have a gateway to an incredible wealth of knowledge, information, and face-to-face connections with people a world away.    Of course, technology can also be exploited for nefarious purposes. We know that ISIS has taken advantage of everyday encryption technology, and even video games to communicate and orchestrate attacks like the one in Paris. These abuses underscore why we need a full understanding of the way technology is growing and changing the global landscape, but they should not blind us to the fact that technology has brought massive benefits to billions of people around the world.    At the same time, it is important to recognize that those benefits have not been evenly distributed. When we focus on access to technology, we see that women and girls are at a tremendous disadvantage, just as they are in so many other areas. Women in developing countries are 23 percent less likely than men to be online. In South Asia, the Middle East, and North Africa, the gap is nearly 35 percent. And in sub-Saharan Africa, it jumps to 45 percent.    Those are really shocking statistics. Some of this disparity is due to structural economic inequality. The cost of technology can be prohibitive in places where women are not full participants in their economies. Some of these problems stem from other norms and ideas about women and girls that keep them as second-class citizens. For example, across much of the developing world, Internet cafes are the easiest way to get online. The constraints of childcare and responsibilities at home make this a difficult option for some women. Access to mobile technology could help break down these barriers but, around the world, 200 million fewer women than men own mobile phones today.    It is unbelievable. But beyond these practical limitations in many countries, Internet cafes, and the Internet in general, are considered inappropriate for women and girls. Even in some of the most remote areas, Internet cafes are packed with boys and young men, but women and girls are left out. In Azerbaijan, only 14 percent of women have ever been online, 14 percent; while 70 percent of men have access to the Internet.    In India and Egypt, 1 in 5 women reported believing that the Internet is inappropriate for them. Can you imagine that? Their reasons for not getting online range from concerns that their families would disapprove to not knowing how the Internet could benefit their lives. The reality, of course, is that access to technology could not only improve the lives of individual women, but could help to lift entire communities and entire countries. We know that keeping women and girls on the sidelines of society is a major drag on growth and prosperity. When women become full economic and political participants, the results are huge in terms of driving economic progress, improving health and education, and raising standards of living. Getting more technology in the hands of more women is a critical way to tap that potential.    According to a recent study sponsored by Intel, getting an additional 150 million women online would add $13 billion to $18 billion to the combined annual GDPs of 144 developing countries. They would help countries become stronger, more stable partners on the world stage, and add fuel to the global economy. So the question isn't why should we break down the gender divide when it comes to technology, but how do we break down that divide?    What education and training efforts will best provide women with the knowledge they need to use technology for their benefit? What kind of partnerships will help make technology more accessible and affordable? How do we address the out-of-date taboo that technology is somehow inappropriate for women and girls? It is unbelievable. I hope our witnesses can offer their guidance in these areas, because I honestly believe that expanding access to technology could help solve so many problems.    I thank you, again, for all you do, all of you. I look forward to your testimony and I yield back, Mr. Chairman.</t>
   </si>
   <si>
@@ -67,18 +82,27 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Davis</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Davis. Thank you. Thank you, Chairman Royce, very much, and Ranking Member Engel and committee members. It is a great honor to be invited to testify here at this hearing on ``Women and Technology: Increasing Opportunity and Driving International Development.''    The efforts of the committee to ensure that women and girls are included and have the same opportunities as men and boys around the world are so appreciated, especially when it comes to the Internet. I have spent most of my adult life advocating for women and girls as a trustee for the Women's Sports Foundation, as chair of the California Commission on the Status of Women and Girls, as an official partner with U.N. Women, and, as the chairman mentioned, ITU's Special Envoy for Women and Girls and ICTs.    The empowerment of women and girls is an issue I am extremely passionate about, and it is why I founded my research institute, which studies gender in children's media to help women and girls to be seen, and heard, and valued across the globe. Technology is having a huge impact on my community, the entertainment industry, in terms of how content creators are using digital platforms to not only serve as the gateway for delivering movies and television programming, but also for the creation of new ways of building global communities.    And the Internet is having a profound impact on how the world engages with media, and can provide endless opportunities to empower women and girls, and to help create a systemic cultural shift by improving how they are portrayed and represented. These are the tools that will ultimately raise the value of women and girls in society.    My institute has sponsored the largest body of research ever done on gender images in children's media, covering over a 20-year span, and we worked side by side with the leading content creators to dramatically improve how women and girls are represented in media targeting children 11 and under. Our study of the careers of female characters in family films and in prime time in children's TV, conducted by Dr. Stacy Smith of the Annenberg School for Communication and Journalism, shows that women are missing from critical occupational sectors, such as the STEM fields.    Out of nearly 6,000 speaking characters in family films, males held 84 percent of all STEM jobs. This calculates to a ratio of five male STEM characters for every one female STEM character. No female leads or co-leads were shown with STEM careers. Looking across the categories of computer science and engineering, the ratio of males to females in these areas was 14.25 to 1. And in television, characters with STEM jobs were 79 percent male, and 21 percent female.    The vast gender inequality in media aimed at children is extremely significant as television and movie images wield enormous influence on how cultures perceive the value of women and girls, and in establishing societal norms. Improving these perceptions can be the real game-changer in achieving greater empowerment and participation of girls and women in the technology sector.    My institute's tag line is: ``If they see it, they can be it.'' Technology has tremendous potential to transform women's and girls' lives, whether through STEM career choices, or by access to services such as e-health, e-education, e-commerce, e-banking, and other applications that can help women and girls address their day-to-day challenges. We need to vastly improve the gender divide. As the chairman pointed out, there were 200 million fewer women online than men at the end of 2013. We need to bridge the opportunities gap. Women earned only 18 percent of U.S. computer science degrees. Women make up less than 20 percent of the U.S. ITC workforce, and only 30 percent of the European ICT workforce. This cannot stand, given the predicted skills shortfall in the ICT sector of at least 2 million jobs globally by 2020.    Encouraging women and girls to pursue careers in tech is critical to closing the economic gender gap. Studies from the ITU have demonstrated that companies that have a gender balance of women working in high-level positions on corporate boards have shown improved financial results. Women and girls will seek the skills to pursue these career opportunities if they can see other women in these roles and be inspired by them. The lack of real-world female role models in tech careers means that it is imperative for fictional female characters in STEM fields to be shown in entertainment media aimed at children.    Technology, and particularly broadband, will be absolutely crucial for achieving all 17 of the U.N. sustainable development goals, and all three pillars of sustainable development: Economic development, social inclusion, and environmental protection. They need technology as key catalysts.    We have the opportunity to ensure that women and girls are fully included in the expansion of the digital world, and that their voices and presence are shaping the agenda of meeting SDG-5, which addresses gender equality.    Access to digital technology will be key to meeting this goal by providing women with the means to educate themselves and their children, to improve their own health and the health of their families and communities, to start their own businesses, to keep themselves safe, and to innovate to shape the future that they want.    Because I am privileged to live in this country as the mother of three children, I can encourage them to engage in any type of interest that they may want to pursue. I want to see a world where all children have the same possibilities and opportunities; a world where women and girls are valued equally to men and boys, and have the freedom to pursue and achieve their dreams.    Chairman Royce and Ranking Member Engel, once again, thank you very much for this opportunity to testify.    [The prepared statement of Ms. Davis appears in the appendix.]</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Royce. Thank you. Ms. Jorge.</t>
   </si>
   <si>
+    <t>Jorge</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Jorge. Thank you, Chairman Royce, Ranking Member Engel, distinguished members of the committee. Thank you for the opportunity to submit a statement to the committee on opportunities for driving international development through increasing women's access to technology.    This issue is critical if we are to achieve the United Nation's Sustainable Development Goals, agreed in September of this year. The United States can and should play a leading role in driving this agenda forward. The Alliance for Affordable Internet, A4AI, is the world's broadest technology sector alliance working to reduce the cost of broadband in developing countries, and through high-level advocacy and direct in-country engagement. The over 80 members or organizations of the alliance identify, research, and advocate for the policy and regulatory reforms needed to bring prices down and increase access to the Internet.    The incredible growth of ICTs over the past decade has transformed Internet access into a force that is critical for sustainable global development. Indeed, President Obama declared earlier this year: ``The Internet is not a luxury. It is a necessity.'' Research has shown the benefits of broadband penetration. Investing in increasing broadband penetration in developing countries could lead to a return on investment of up to $21 for each $1 spent. Of course, the benefits of connectivity go far beyond the economic, bringing better health care to rural, conflict-affected, and other underserved areas, helping farmers cope with climate change, and connecting millions of children and young people to free online courses and learning materials. E-governance and social media are enabling citizens to participate more actively in civic life, while also streamlining delivery of public services, a move that, in Africa alone, could result in technology-related productivity gains of $10 billion to $25 billion annually by 2025.    Today, over 60 percent of the world's population, equivalent to 4.3 billion people, as was already said, remain offline, and these billions of people excluded from the life-changing possibilities of the Internet are predominantly female, and nearly all in the developing world. Mobile broadband, the primary means by which most citizens in the developing world access the Internet, has been critical for expanding Internet access. Mobile broadband across the developed world is widely spread with penetration rates reaching nearly 90 percent. Yet, this rate dropped to about 17 percent in Africa. This digital divide exacerbates existing economic and social inequalities, and stifles development across the globe by keeping women and other marginalized populations, those who arguably stand the most to benefit from an online connection, from accessing the empowering potential of the Web.    While an entry-level broadband connection costs about 1 percent of monthly incomes across the developed world, it costs about 10 percent for most in developing countries, and can reach over 100 percent of their incomes in many countries.    High prices hit certain groups harder. Excuse me, high prices hit certain groups harder than others, and income inequalities mask the true scale of the problem in many countries. For billions living in poverty, earning less than $2 a day, the cost of a basic broadband connection is prohibitive. Women are nearly 50 percent less likely to access the Internet than men in the same community. The Web Foundation study found that women are 30 to 50 percent less likely than men to use the Internet to increase their income, or to participate in public life. We need to change that. We need to change the gender gap. We need to work together to change the conditions in which women can have access to the Internet.    Skills and relevance are also another barrier important to address. To boost economic growth, empower democratic governance, and advance global development, cannot be overlooked as a key component of U.S. foreign policy, and there is a huge potential for the Internet to have a role in that space. Here are some concrete actions that the U.S. Government can support and invest in: Support policy reform, based on inclusive multi-stakeholder processes that will lead to market growth and lower costs; coordinate broadband expansion strategies with development in the energy sector; invest in International Telecommunications Union, a U.N. agency, that does efforts to expand collection of gender indicators and support national statistics agencies to do the same; support the development of inclusive and holistic national ICT and broadband plans, that address all aspects of the access and use ecosystem; recognize barriers faced by women, and ensure privacy and safety online; education programs and consumer campaigns to increase awareness of the utility of the Internet, as well as training on basic skills and safety online will be critical to ensuring women can access and fully utilize a safe and open Web without any fear of retaliation. Incorporate digital skills education into education programs from primary school onwards. And finally, develop and support programs that provide public access and to target underserved populations.    I look forward to our discussion here today and your questions. And I thank you again for this opportunity.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Royce. Thank you, Ms. Jorge. Ms. Warner.</t>
   </si>
   <si>
+    <t>Warner</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Warner. Thank you, Chairman Royce, Ranking Member Engel, and distinguished members of the committee. On behalf of IREX, I am very honored to have the opportunity today to discuss our experience and the important relationship between women and information and communication technology in the developing world. I want to also thank my colleagues for their compelling remarks this morning. And I will try to--you may find some overlap because I think we have some similar recommendations.    Since 1968, IREX has worked in over 125 countries to build just, prosperous, and inclusive societies, and we use technology across much of our programming. Our work is supported by the generosity of the American people through the U.S. Department of State, the U.S. Agency for International Development, as well as private donors, including the Bill &amp; Melinda Gates Foundation and the Carnegie Corporation of New York. Our approach is to focus holistically on both IT access, but also broadening digital literacy. I know we talked a lot this morning about why the issue is important, including improving GDP, and we have also talked about the alarming disparity for women and girls, the overall less access to the Internet, less mobile ownership. I want to highlight also, though, that less training and exposure even where access is available, is an important factor creating the digital divide. And according to the 2015 World Wide Web Foundation report, women are 1.6 times more likely to report a pure lack of skills as a barrier to Internet use. And I think we would all agree that nations cannot develop and grow unless they engage their full human resource potential, and closing the gender digital divide will be key to achieving this.    So I would like to share a few things of what we have learned at IREX. First, women and girls need safe public access points. We know that girls and women often choose public libraries because they are perceived as safe, reliable, and affordable. And we have partnered with the Gates Foundation in 11 countries to turn public institutions, like libraries, into Internet access points. And we are pairing that with providing access and training librarians to support them.    Second, it is really important to introduce girls to technology as early as possible, and definitely no later than their adolescence. The after-school tech clubs IREX has created in eight countries have helped girls gain digital skills with positive results into young adulthood, including increased confidence and employability. By supporting girls early on with digital literacy skills, we can help stem a lifetime of gender disparity.    Third, we need to invest and support infomediaries, and by this, we mean trusted community members, teachers, librarians, other adults who can help coach and train both younger and older women to use technology effectively and positively. Infomediaries can also help them filter the massive amounts of information that is available. In addition to working with librarians, we have partnered with the State Department to expand the use of technology by master teachers from across the developing world, the overwhelming majority of whom have had no prior training in using instructional technology in the classroom. The goal is to make technology a regular part of learning and not only a special subject or an elective.    And finally, we have learned that women also need to find relevant and valuable information to them, and that is both available in their local language, but in addition, it is information they can use in their everyday lives.    In partnerships with USAID and a local Jordanian research organization, we have just recently launched a gender clearinghouse. This is the first of its kind in Jordan, and it is allowing women to access information on their human rights.    The core of what we need to achieve gender parity in technology around the globe exists today, and so we have a few recommendations. First, we need to expand the notion of literacy to include digital literacy. ICT needs to be included in formal education. It is not a side subject. So while we used to have the three Rs, I think now we need literacy, numeracy, and digital literacy. We need them all working together, and we need to introduce that as early as possible.    Second, we should prioritize investments in community institutions like schools and libraries where we can build on existing infrastructure for public access. For example, there are 320,000 libraries in the world, and 70 percent of them are in developing countries. Imagine if each was connected to the Internet, and staffed with a skilled infomediary to support Internet access by women and girls.    Third, we need to balance the overall expanding of IT access with better digital literacy and skills, and ongoing coaching, so that women and girls can use this technology to better their economic, family, and life outcomes, so as to not inadvertently, without those skills, expand the divide rather than shrink it.    And finally, we should look across all of the work we are doing in the U.S. Government and among our development partners, and make sure that everything we do is taking the gender digital divide into account. Whether we are working on health, or food security, or environmental issues, are we looking at everything, and making sure that we are addressing this wherever it is possible?    And increasing mobile subscriptions alone will not actually purely equalize this gender divide. Governments, international agencies, nonprofits, and private enterprises need to work together. And I thank the committee for this opportunity.</t>
   </si>
   <si>
@@ -100,6 +124,12 @@
     <t>412186</t>
   </si>
   <si>
+    <t>Sires</t>
+  </si>
+  <si>
+    <t>Albio</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Sires. Thank you, Mr. Chairman, and thank you for being here. This is a very important issue for empowering women in many of these countries. I was just wondering, when you talk about this stigma that in some of these countries have, women using the Internet, and getting good at it, would you call it jealousy, just from the male role in some of these countries, or what is actually the stigma that you are talking about? Anyone?</t>
   </si>
   <si>
@@ -127,6 +157,12 @@
     <t>400344</t>
   </si>
   <si>
+    <t>Ros-Lehtinen</t>
+  </si>
+  <si>
+    <t>Ileana</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Ros-Lehtinen. Thank you.</t>
   </si>
   <si>
@@ -211,6 +247,12 @@
     <t>412525</t>
   </si>
   <si>
+    <t>Yoho</t>
+  </si>
+  <si>
+    <t>Ted</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Yoho. Thank you, Mr. Chairman. I appreciate the panelists being here. And, you know, there is a paradigm shift going on. I am a veterinarian by trade, and I graduated in 1983. And up to the 1970s, it was a male-dominated field. And when I went to vet school, it was about 65 percent male and 35 percent female. Now it is about 10 percent male, 90 percent female, and it has changed. And I think a lot of professions have done that. And, I think, in large part, you know, what they see on television. So I commend you for doing that. And, of course, your role in ``The Long Kiss Good Night,'' you know, being a housewife that was a chef. I still remember that chefs do those things, you know. And that was a great movie, and I am sure that has inspired a lot of people.</t>
   </si>
   <si>
@@ -271,6 +313,12 @@
     <t>412435</t>
   </si>
   <si>
+    <t>Keating</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Keating. Thank you, Mr. Chairman. It is great to welcome a graduate of Wareham High School, in Massachusetts, Ms. Davis. And it is a pleasure to be here. I am in the next town over in Bourne, and I am sure we are all proud of your success and the work you are doing in this regard.    I wanted to touch base on something I think is just as important too, and that is how important your work is for males and young men. I mean, a mother is a child's first teacher, and particularly in other countries in the world as well as domestically. Empowering mothers to have this information, to have this access, we have found with investments in USAID, that money is better served empowering women and mothers, because it goes better to the health of the children, the welfare of the child, but also the education of that child. So can you speak a little bit about how empowering this is for mothers--how it is for young boys having a mother that is more in a position of having these resources?</t>
   </si>
   <si>
@@ -298,6 +346,12 @@
     <t>400606</t>
   </si>
   <si>
+    <t>Salmon</t>
+  </si>
+  <si>
+    <t>Matt</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Salmon. Thank you, Mr. Chairman.    First and foremost, I want to go on the record agreeing wholeheartedly with Mr. Engel that Carly Fiorina could make a great President of the United States. Just having a little fun.</t>
   </si>
   <si>
@@ -331,6 +385,12 @@
     <t>412529</t>
   </si>
   <si>
+    <t>Frankel</t>
+  </si>
+  <si>
+    <t>Lois</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Frankel. Thank you, Mr. Royce. And thank you so much for this hearing. I consider myself pretty well informed on women's issues, but I have to say, this is very shocking to me, and I thank all of you for being here, because I know I often--every day I say to myself, how did we live without the Internet? It is really something.    And, you know, even my own--my mother is 90 years old, and she loves her pink iPad. I mean, she is on that iPad all day. And, you know, my niece has this little 2-year-old, I don't think he is even 2 years old, and we go out and he grabs the phone and he is playing games. So it is just--it is--I will say it is pervasive, but--so, anyway, I have a few questions.    I just want to say to Ms. Davis, I am a great fan. I am glad to see you are alive and well. I have been worried about you. I know you went over the cliff--I see you go over the cliff and then I think you just went blind and died on Grey's Anatomy. Did you live or did you die?</t>
   </si>
   <si>
@@ -362,6 +422,12 @@
   </si>
   <si>
     <t>412521</t>
+  </si>
+  <si>
+    <t>Lowenthal</t>
+  </si>
+  <si>
+    <t>Alan</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Lowenthal. From California. Thank you, Mr. Chair. And thank you, witnesses, for being here. And I apologize for coming a little late.    Last night as I was going through preparing for this, and I know we are kind of looking at both developing and developed nations and kind of--I was shocked by something, and it was the last paragraph of the memorandum that was put out by the chair of the committee, where it said that in the United States, fewer women are now completing technology engineering degrees than what occurred 30 years ago. So there are fewer now, and half of all that enter technology companies leave them by mid career. These are staggering statistics, and it really just knocked me for a loop when I read that.    And so what are we going to do from a policy standpoint here within the United States to really reverse this? Less than 30 years ago: It is just a shock. And I just want to know if you can help us, as we begin to kind of grapple with this, both the idea of both access, but also retention. How are we going to deal with this issue, and--which is just shocking, absolutely shocking. And I ask for any help, me not knowing kind of where to go from here.</t>
@@ -785,7 +851,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H132"/>
+  <dimension ref="A1:I132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -793,7 +859,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -815,3149 +881,3697 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>35</v>
+      </c>
+      <c r="G15" t="s">
+        <v>36</v>
+      </c>
       <c r="H15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="I15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>35</v>
+      </c>
+      <c r="G17" t="s">
+        <v>36</v>
+      </c>
       <c r="H17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="I17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G18" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>35</v>
+      </c>
+      <c r="G19" t="s">
+        <v>36</v>
+      </c>
       <c r="H19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="I19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>35</v>
+      </c>
+      <c r="G21" t="s">
+        <v>36</v>
+      </c>
       <c r="H21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="I21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
       <c r="H22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>46</v>
+      </c>
+      <c r="G23" t="s">
+        <v>47</v>
+      </c>
       <c r="H23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>27</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>35</v>
+      </c>
+      <c r="G24" t="s">
+        <v>36</v>
+      </c>
       <c r="H24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="I24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>46</v>
+      </c>
+      <c r="G25" t="s">
+        <v>47</v>
+      </c>
       <c r="H25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>46</v>
+      </c>
+      <c r="G27" t="s">
+        <v>47</v>
+      </c>
       <c r="H27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G28" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>46</v>
+      </c>
+      <c r="G29" t="s">
+        <v>47</v>
+      </c>
       <c r="H29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G30" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>36</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>46</v>
+      </c>
+      <c r="G31" t="s">
+        <v>47</v>
+      </c>
       <c r="H31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G32" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>36</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>46</v>
+      </c>
+      <c r="G33" t="s">
+        <v>47</v>
+      </c>
       <c r="H33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>16</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G34" t="s">
+        <v>22</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>36</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>46</v>
+      </c>
+      <c r="G35" t="s">
+        <v>47</v>
+      </c>
       <c r="H35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G36" t="s">
+        <v>22</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>36</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>46</v>
+      </c>
+      <c r="G37" t="s">
+        <v>47</v>
+      </c>
       <c r="H37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G38" t="s">
+        <v>22</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>36</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>46</v>
+      </c>
+      <c r="G39" t="s">
+        <v>47</v>
+      </c>
       <c r="H39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G40" t="s">
+        <v>22</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>36</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>46</v>
+      </c>
+      <c r="G41" t="s">
+        <v>47</v>
+      </c>
       <c r="H41" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I41" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G42" t="s">
+        <v>22</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>36</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>46</v>
+      </c>
+      <c r="G43" t="s">
+        <v>47</v>
+      </c>
       <c r="H43" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G44" t="s">
+        <v>13</v>
+      </c>
       <c r="H44" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>13</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G45" t="s">
+        <v>17</v>
+      </c>
       <c r="H45" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I45" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>16</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G46" t="s">
+        <v>22</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>13</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G47" t="s">
+        <v>17</v>
+      </c>
       <c r="H47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I47" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>16</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>13</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G49" t="s">
+        <v>17</v>
+      </c>
       <c r="H49" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I49" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>16</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G50" t="s">
+        <v>22</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G51" t="s">
+        <v>17</v>
+      </c>
       <c r="H51" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I51" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>16</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G52" t="s">
+        <v>28</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>13</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G53" t="s">
+        <v>17</v>
+      </c>
       <c r="H53" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I53" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G54" t="s">
+        <v>13</v>
+      </c>
       <c r="H54" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I54" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>64</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G55" t="s">
+        <v>77</v>
+      </c>
       <c r="H55" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I55" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>16</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G56" t="s">
+        <v>22</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>64</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G57" t="s">
+        <v>77</v>
+      </c>
       <c r="H57" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I57" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>16</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G58" t="s">
+        <v>25</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>64</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G59" t="s">
+        <v>77</v>
+      </c>
       <c r="H59" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I59" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>16</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G60" t="s">
+        <v>25</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>64</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G61" t="s">
+        <v>77</v>
+      </c>
       <c r="H61" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I61" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>16</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G62" t="s">
+        <v>25</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>64</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G63" t="s">
+        <v>77</v>
+      </c>
       <c r="H63" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I63" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>16</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G64" t="s">
+        <v>25</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>64</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G65" t="s">
+        <v>77</v>
+      </c>
       <c r="H65" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I65" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>16</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G66" t="s">
+        <v>25</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>64</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G67" t="s">
+        <v>77</v>
+      </c>
       <c r="H67" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I67" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>16</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G68" t="s">
+        <v>28</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>64</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G69" t="s">
+        <v>77</v>
+      </c>
       <c r="H69" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I69" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>16</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G70" t="s">
+        <v>28</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>64</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G71" t="s">
+        <v>77</v>
+      </c>
       <c r="H71" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I71" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>16</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G72" t="s">
+        <v>22</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>64</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G73" t="s">
+        <v>77</v>
+      </c>
       <c r="H73" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I73" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>16</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G74" t="s">
+        <v>22</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>11</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G75" t="s">
+        <v>13</v>
+      </c>
       <c r="H75" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I75" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>84</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G76" t="s">
+        <v>99</v>
+      </c>
       <c r="H76" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I76" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>16</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G77" t="s">
+        <v>22</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>84</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G78" t="s">
+        <v>99</v>
+      </c>
       <c r="H78" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I78" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>16</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G79" t="s">
+        <v>25</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>84</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G80" t="s">
+        <v>99</v>
+      </c>
       <c r="H80" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I80" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>16</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G81" t="s">
+        <v>28</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>84</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G82" t="s">
+        <v>99</v>
+      </c>
       <c r="H82" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I82" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>11</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G83" t="s">
+        <v>13</v>
+      </c>
       <c r="H83" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I83" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>93</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>109</v>
+      </c>
+      <c r="G84" t="s">
+        <v>110</v>
+      </c>
       <c r="H84" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>111</v>
+      </c>
+      <c r="I84" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>11</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G85" t="s">
+        <v>13</v>
+      </c>
       <c r="H85" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I85" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>93</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>109</v>
+      </c>
+      <c r="G86" t="s">
+        <v>110</v>
+      </c>
       <c r="H86" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>111</v>
+      </c>
+      <c r="I86" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>16</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G87" t="s">
+        <v>22</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>93</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>109</v>
+      </c>
+      <c r="G88" t="s">
+        <v>110</v>
+      </c>
       <c r="H88" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>111</v>
+      </c>
+      <c r="I88" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>16</v>
-      </c>
-      <c r="G89" t="s"/>
-      <c r="H89" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G89" t="s">
+        <v>22</v>
+      </c>
+      <c r="H89" t="s"/>
+      <c r="I89" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>93</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>109</v>
+      </c>
+      <c r="G90" t="s">
+        <v>110</v>
+      </c>
       <c r="H90" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>111</v>
+      </c>
+      <c r="I90" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>16</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G91" t="s">
+        <v>25</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>16</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G92" t="s">
+        <v>28</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>93</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>109</v>
+      </c>
+      <c r="G93" t="s">
+        <v>110</v>
+      </c>
       <c r="H93" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>111</v>
+      </c>
+      <c r="I93" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>11</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G94" t="s">
+        <v>13</v>
+      </c>
       <c r="H94" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I94" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>104</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>122</v>
+      </c>
+      <c r="G95" t="s">
+        <v>123</v>
+      </c>
       <c r="H95" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>124</v>
+      </c>
+      <c r="I95" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>16</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G96" t="s">
+        <v>22</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>104</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>122</v>
+      </c>
+      <c r="G97" t="s">
+        <v>123</v>
+      </c>
       <c r="H97" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>124</v>
+      </c>
+      <c r="I97" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>16</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G98" t="s">
+        <v>22</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>104</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>122</v>
+      </c>
+      <c r="G99" t="s">
+        <v>123</v>
+      </c>
       <c r="H99" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>124</v>
+      </c>
+      <c r="I99" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>16</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G100" t="s">
+        <v>22</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>104</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>122</v>
+      </c>
+      <c r="G101" t="s">
+        <v>123</v>
+      </c>
       <c r="H101" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>124</v>
+      </c>
+      <c r="I101" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>16</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G102" t="s">
+        <v>25</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>104</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>122</v>
+      </c>
+      <c r="G103" t="s">
+        <v>123</v>
+      </c>
       <c r="H103" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>124</v>
+      </c>
+      <c r="I103" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>11</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G104" t="s">
+        <v>13</v>
+      </c>
       <c r="H104" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I104" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>115</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>135</v>
+      </c>
+      <c r="G105" t="s">
+        <v>136</v>
+      </c>
       <c r="H105" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>137</v>
+      </c>
+      <c r="I105" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>16</v>
-      </c>
-      <c r="G106" t="s"/>
-      <c r="H106" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G106" t="s">
+        <v>28</v>
+      </c>
+      <c r="H106" t="s"/>
+      <c r="I106" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>115</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>135</v>
+      </c>
+      <c r="G107" t="s">
+        <v>136</v>
+      </c>
       <c r="H107" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>137</v>
+      </c>
+      <c r="I107" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>16</v>
-      </c>
-      <c r="G108" t="s"/>
-      <c r="H108" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G108" t="s">
+        <v>28</v>
+      </c>
+      <c r="H108" t="s"/>
+      <c r="I108" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>115</v>
-      </c>
-      <c r="G109" t="s"/>
+        <v>135</v>
+      </c>
+      <c r="G109" t="s">
+        <v>136</v>
+      </c>
       <c r="H109" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>137</v>
+      </c>
+      <c r="I109" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>16</v>
-      </c>
-      <c r="G110" t="s"/>
-      <c r="H110" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G110" t="s">
+        <v>28</v>
+      </c>
+      <c r="H110" t="s"/>
+      <c r="I110" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>115</v>
-      </c>
-      <c r="G111" t="s"/>
+        <v>135</v>
+      </c>
+      <c r="G111" t="s">
+        <v>136</v>
+      </c>
       <c r="H111" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>137</v>
+      </c>
+      <c r="I111" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>16</v>
-      </c>
-      <c r="G112" t="s"/>
-      <c r="H112" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G112" t="s">
+        <v>28</v>
+      </c>
+      <c r="H112" t="s"/>
+      <c r="I112" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>115</v>
-      </c>
-      <c r="G113" t="s"/>
+        <v>135</v>
+      </c>
+      <c r="G113" t="s">
+        <v>136</v>
+      </c>
       <c r="H113" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>137</v>
+      </c>
+      <c r="I113" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>16</v>
-      </c>
-      <c r="G114" t="s"/>
-      <c r="H114" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G114" t="s">
+        <v>28</v>
+      </c>
+      <c r="H114" t="s"/>
+      <c r="I114" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>115</v>
-      </c>
-      <c r="G115" t="s"/>
+        <v>135</v>
+      </c>
+      <c r="G115" t="s">
+        <v>136</v>
+      </c>
       <c r="H115" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>137</v>
+      </c>
+      <c r="I115" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>16</v>
-      </c>
-      <c r="G116" t="s"/>
-      <c r="H116" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G116" t="s">
+        <v>22</v>
+      </c>
+      <c r="H116" t="s"/>
+      <c r="I116" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>115</v>
-      </c>
-      <c r="G117" t="s"/>
+        <v>135</v>
+      </c>
+      <c r="G117" t="s">
+        <v>136</v>
+      </c>
       <c r="H117" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>137</v>
+      </c>
+      <c r="I117" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>16</v>
-      </c>
-      <c r="G118" t="s"/>
-      <c r="H118" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G118" t="s">
+        <v>22</v>
+      </c>
+      <c r="H118" t="s"/>
+      <c r="I118" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>115</v>
-      </c>
-      <c r="G119" t="s"/>
+        <v>135</v>
+      </c>
+      <c r="G119" t="s">
+        <v>136</v>
+      </c>
       <c r="H119" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>137</v>
+      </c>
+      <c r="I119" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>16</v>
-      </c>
-      <c r="G120" t="s"/>
-      <c r="H120" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G120" t="s">
+        <v>22</v>
+      </c>
+      <c r="H120" t="s"/>
+      <c r="I120" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>115</v>
-      </c>
-      <c r="G121" t="s"/>
+        <v>135</v>
+      </c>
+      <c r="G121" t="s">
+        <v>136</v>
+      </c>
       <c r="H121" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>137</v>
+      </c>
+      <c r="I121" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>16</v>
-      </c>
-      <c r="G122" t="s"/>
-      <c r="H122" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G122" t="s">
+        <v>22</v>
+      </c>
+      <c r="H122" t="s"/>
+      <c r="I122" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>115</v>
-      </c>
-      <c r="G123" t="s"/>
+        <v>135</v>
+      </c>
+      <c r="G123" t="s">
+        <v>136</v>
+      </c>
       <c r="H123" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>137</v>
+      </c>
+      <c r="I123" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>16</v>
-      </c>
-      <c r="G124" t="s"/>
-      <c r="H124" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G124" t="s">
+        <v>25</v>
+      </c>
+      <c r="H124" t="s"/>
+      <c r="I124" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>115</v>
-      </c>
-      <c r="G125" t="s"/>
+        <v>135</v>
+      </c>
+      <c r="G125" t="s">
+        <v>136</v>
+      </c>
       <c r="H125" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>137</v>
+      </c>
+      <c r="I125" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>16</v>
-      </c>
-      <c r="G126" t="s"/>
-      <c r="H126" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G126" t="s">
+        <v>25</v>
+      </c>
+      <c r="H126" t="s"/>
+      <c r="I126" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>115</v>
-      </c>
-      <c r="G127" t="s"/>
+        <v>135</v>
+      </c>
+      <c r="G127" t="s">
+        <v>136</v>
+      </c>
       <c r="H127" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>137</v>
+      </c>
+      <c r="I127" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>16</v>
-      </c>
-      <c r="G128" t="s"/>
-      <c r="H128" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G128" t="s">
+        <v>25</v>
+      </c>
+      <c r="H128" t="s"/>
+      <c r="I128" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>115</v>
-      </c>
-      <c r="G129" t="s"/>
+        <v>135</v>
+      </c>
+      <c r="G129" t="s">
+        <v>136</v>
+      </c>
       <c r="H129" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>137</v>
+      </c>
+      <c r="I129" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>16</v>
-      </c>
-      <c r="G130" t="s"/>
-      <c r="H130" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G130" t="s">
+        <v>25</v>
+      </c>
+      <c r="H130" t="s"/>
+      <c r="I130" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>115</v>
-      </c>
-      <c r="G131" t="s"/>
+        <v>135</v>
+      </c>
+      <c r="G131" t="s">
+        <v>136</v>
+      </c>
       <c r="H131" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>137</v>
+      </c>
+      <c r="I131" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>11</v>
-      </c>
-      <c r="G132" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G132" t="s">
+        <v>13</v>
+      </c>
       <c r="H132" t="s">
-        <v>140</v>
+        <v>14</v>
+      </c>
+      <c r="I132" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg97633.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97633.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="167">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400348</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Royce</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>400122</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Engel</t>
   </si>
   <si>
@@ -122,6 +131,9 @@
   </si>
   <si>
     <t>412186</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Sires</t>
@@ -851,7 +863,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I132"/>
+  <dimension ref="A1:J132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -859,7 +871,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -884,3694 +896,3980 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H15" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="J15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" t="s">
-        <v>28</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G17" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H17" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="J17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G19" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H19" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="J19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" t="s">
-        <v>25</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G21" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H21" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="J21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>52</v>
+      </c>
+      <c r="J23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G24" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H24" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="J24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I25" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>52</v>
+      </c>
+      <c r="J25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" t="s">
-        <v>22</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>52</v>
+      </c>
+      <c r="J27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>21</v>
-      </c>
-      <c r="G28" t="s">
-        <v>22</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>25</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G29" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I29" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>52</v>
+      </c>
+      <c r="J29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>21</v>
-      </c>
-      <c r="G30" t="s">
-        <v>22</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>25</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G31" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I31" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>52</v>
+      </c>
+      <c r="J31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>21</v>
-      </c>
-      <c r="G32" t="s">
-        <v>22</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>25</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G33" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I33" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>52</v>
+      </c>
+      <c r="J33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>21</v>
-      </c>
-      <c r="G34" t="s">
-        <v>22</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>25</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G35" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H35" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I35" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>52</v>
+      </c>
+      <c r="J35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>21</v>
-      </c>
-      <c r="G36" t="s">
-        <v>22</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>25</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G37" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H37" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I37" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>52</v>
+      </c>
+      <c r="J37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>21</v>
-      </c>
-      <c r="G38" t="s">
-        <v>22</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>25</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G39" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H39" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I39" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>52</v>
+      </c>
+      <c r="J39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>21</v>
-      </c>
-      <c r="G40" t="s">
-        <v>22</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>25</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G41" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H41" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I41" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>52</v>
+      </c>
+      <c r="J41" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>21</v>
-      </c>
-      <c r="G42" t="s">
-        <v>22</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>25</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G43" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H43" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I43" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>52</v>
+      </c>
+      <c r="J43" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G44" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H44" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I44" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J44" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G45" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H45" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I45" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J45" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>21</v>
-      </c>
-      <c r="G46" t="s">
-        <v>22</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>25</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G47" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H47" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I47" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J47" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>21</v>
-      </c>
-      <c r="G48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>25</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G49" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H49" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I49" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J49" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>21</v>
-      </c>
-      <c r="G50" t="s">
-        <v>22</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>25</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G51" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H51" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I51" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J51" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>21</v>
-      </c>
-      <c r="G52" t="s">
-        <v>28</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>31</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G53" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H53" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I53" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J53" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G54" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H54" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I54" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J54" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G55" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="H55" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I55" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>82</v>
+      </c>
+      <c r="J55" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>21</v>
-      </c>
-      <c r="G56" t="s">
-        <v>22</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>25</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G57" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="H57" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I57" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>82</v>
+      </c>
+      <c r="J57" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>21</v>
-      </c>
-      <c r="G58" t="s">
-        <v>25</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>28</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G59" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="H59" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I59" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>82</v>
+      </c>
+      <c r="J59" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>21</v>
-      </c>
-      <c r="G60" t="s">
-        <v>25</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>28</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G61" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="H61" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I61" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>82</v>
+      </c>
+      <c r="J61" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>21</v>
-      </c>
-      <c r="G62" t="s">
-        <v>25</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>28</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G63" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="H63" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I63" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>82</v>
+      </c>
+      <c r="J63" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>21</v>
-      </c>
-      <c r="G64" t="s">
-        <v>25</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>28</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G65" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="H65" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I65" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>82</v>
+      </c>
+      <c r="J65" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>21</v>
-      </c>
-      <c r="G66" t="s">
-        <v>25</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>28</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G67" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="H67" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I67" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>82</v>
+      </c>
+      <c r="J67" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>21</v>
-      </c>
-      <c r="G68" t="s">
-        <v>28</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>31</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G69" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="H69" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I69" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>82</v>
+      </c>
+      <c r="J69" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>21</v>
-      </c>
-      <c r="G70" t="s">
-        <v>28</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>31</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G71" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="H71" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I71" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>82</v>
+      </c>
+      <c r="J71" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>21</v>
-      </c>
-      <c r="G72" t="s">
-        <v>22</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>25</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G73" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="H73" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I73" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>82</v>
+      </c>
+      <c r="J73" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>21</v>
-      </c>
-      <c r="G74" t="s">
-        <v>22</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>25</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G75" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H75" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I75" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J75" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G76" t="s">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="H76" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I76" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>104</v>
+      </c>
+      <c r="J76" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>21</v>
-      </c>
-      <c r="G77" t="s">
-        <v>22</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>25</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G78" t="s">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="H78" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I78" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>104</v>
+      </c>
+      <c r="J78" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>21</v>
-      </c>
-      <c r="G79" t="s">
-        <v>25</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>28</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G80" t="s">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="H80" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I80" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>104</v>
+      </c>
+      <c r="J80" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>21</v>
-      </c>
-      <c r="G81" t="s">
-        <v>28</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>31</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G82" t="s">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="H82" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I82" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>104</v>
+      </c>
+      <c r="J82" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G83" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H83" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I83" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J83" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G84" t="s">
-        <v>110</v>
+        <v>39</v>
       </c>
       <c r="H84" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I84" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>115</v>
+      </c>
+      <c r="J84" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G85" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H85" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I85" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J85" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G86" t="s">
-        <v>110</v>
+        <v>39</v>
       </c>
       <c r="H86" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I86" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>115</v>
+      </c>
+      <c r="J86" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>21</v>
-      </c>
-      <c r="G87" t="s">
-        <v>22</v>
-      </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
+        <v>25</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G88" t="s">
-        <v>110</v>
+        <v>39</v>
       </c>
       <c r="H88" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I88" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>115</v>
+      </c>
+      <c r="J88" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>21</v>
-      </c>
-      <c r="G89" t="s">
-        <v>22</v>
-      </c>
-      <c r="H89" t="s"/>
-      <c r="I89" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
+        <v>25</v>
+      </c>
+      <c r="I89" t="s"/>
+      <c r="J89" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G90" t="s">
-        <v>110</v>
+        <v>39</v>
       </c>
       <c r="H90" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I90" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>115</v>
+      </c>
+      <c r="J90" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>21</v>
-      </c>
-      <c r="G91" t="s">
-        <v>25</v>
-      </c>
-      <c r="H91" t="s"/>
-      <c r="I91" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
+        <v>28</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>21</v>
-      </c>
-      <c r="G92" t="s">
-        <v>28</v>
-      </c>
-      <c r="H92" t="s"/>
-      <c r="I92" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
+        <v>31</v>
+      </c>
+      <c r="I92" t="s"/>
+      <c r="J92" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G93" t="s">
-        <v>110</v>
+        <v>39</v>
       </c>
       <c r="H93" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I93" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>115</v>
+      </c>
+      <c r="J93" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G94" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H94" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I94" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J94" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G95" t="s">
-        <v>123</v>
+        <v>39</v>
       </c>
       <c r="H95" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="I95" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>128</v>
+      </c>
+      <c r="J95" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>21</v>
-      </c>
-      <c r="G96" t="s">
-        <v>22</v>
-      </c>
-      <c r="H96" t="s"/>
-      <c r="I96" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
+        <v>25</v>
+      </c>
+      <c r="I96" t="s"/>
+      <c r="J96" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G97" t="s">
-        <v>123</v>
+        <v>39</v>
       </c>
       <c r="H97" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="I97" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>128</v>
+      </c>
+      <c r="J97" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>21</v>
-      </c>
-      <c r="G98" t="s">
-        <v>22</v>
-      </c>
-      <c r="H98" t="s"/>
-      <c r="I98" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
+        <v>25</v>
+      </c>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G99" t="s">
-        <v>123</v>
+        <v>39</v>
       </c>
       <c r="H99" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="I99" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>128</v>
+      </c>
+      <c r="J99" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>21</v>
-      </c>
-      <c r="G100" t="s">
-        <v>22</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>25</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G101" t="s">
-        <v>123</v>
+        <v>39</v>
       </c>
       <c r="H101" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="I101" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>128</v>
+      </c>
+      <c r="J101" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>21</v>
-      </c>
-      <c r="G102" t="s">
-        <v>25</v>
-      </c>
-      <c r="H102" t="s"/>
-      <c r="I102" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s">
+        <v>28</v>
+      </c>
+      <c r="I102" t="s"/>
+      <c r="J102" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G103" t="s">
-        <v>123</v>
+        <v>39</v>
       </c>
       <c r="H103" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="I103" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>128</v>
+      </c>
+      <c r="J103" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G104" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H104" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I104" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J104" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G105" t="s">
-        <v>136</v>
+        <v>39</v>
       </c>
       <c r="H105" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I105" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>141</v>
+      </c>
+      <c r="J105" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>21</v>
-      </c>
-      <c r="G106" t="s">
-        <v>28</v>
-      </c>
-      <c r="H106" t="s"/>
-      <c r="I106" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G106" t="s"/>
+      <c r="H106" t="s">
+        <v>31</v>
+      </c>
+      <c r="I106" t="s"/>
+      <c r="J106" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G107" t="s">
-        <v>136</v>
+        <v>39</v>
       </c>
       <c r="H107" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I107" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>141</v>
+      </c>
+      <c r="J107" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>21</v>
-      </c>
-      <c r="G108" t="s">
-        <v>28</v>
-      </c>
-      <c r="H108" t="s"/>
-      <c r="I108" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G108" t="s"/>
+      <c r="H108" t="s">
+        <v>31</v>
+      </c>
+      <c r="I108" t="s"/>
+      <c r="J108" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G109" t="s">
-        <v>136</v>
+        <v>39</v>
       </c>
       <c r="H109" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I109" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>141</v>
+      </c>
+      <c r="J109" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>21</v>
-      </c>
-      <c r="G110" t="s">
-        <v>28</v>
-      </c>
-      <c r="H110" t="s"/>
-      <c r="I110" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G110" t="s"/>
+      <c r="H110" t="s">
+        <v>31</v>
+      </c>
+      <c r="I110" t="s"/>
+      <c r="J110" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G111" t="s">
-        <v>136</v>
+        <v>39</v>
       </c>
       <c r="H111" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I111" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>141</v>
+      </c>
+      <c r="J111" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>21</v>
-      </c>
-      <c r="G112" t="s">
-        <v>28</v>
-      </c>
-      <c r="H112" t="s"/>
-      <c r="I112" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G112" t="s"/>
+      <c r="H112" t="s">
+        <v>31</v>
+      </c>
+      <c r="I112" t="s"/>
+      <c r="J112" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G113" t="s">
-        <v>136</v>
+        <v>39</v>
       </c>
       <c r="H113" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I113" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>141</v>
+      </c>
+      <c r="J113" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>21</v>
-      </c>
-      <c r="G114" t="s">
-        <v>28</v>
-      </c>
-      <c r="H114" t="s"/>
-      <c r="I114" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G114" t="s"/>
+      <c r="H114" t="s">
+        <v>31</v>
+      </c>
+      <c r="I114" t="s"/>
+      <c r="J114" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G115" t="s">
-        <v>136</v>
+        <v>39</v>
       </c>
       <c r="H115" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I115" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>141</v>
+      </c>
+      <c r="J115" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>21</v>
-      </c>
-      <c r="G116" t="s">
-        <v>22</v>
-      </c>
-      <c r="H116" t="s"/>
-      <c r="I116" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G116" t="s"/>
+      <c r="H116" t="s">
+        <v>25</v>
+      </c>
+      <c r="I116" t="s"/>
+      <c r="J116" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G117" t="s">
-        <v>136</v>
+        <v>39</v>
       </c>
       <c r="H117" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I117" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>141</v>
+      </c>
+      <c r="J117" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>21</v>
-      </c>
-      <c r="G118" t="s">
-        <v>22</v>
-      </c>
-      <c r="H118" t="s"/>
-      <c r="I118" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G118" t="s"/>
+      <c r="H118" t="s">
+        <v>25</v>
+      </c>
+      <c r="I118" t="s"/>
+      <c r="J118" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G119" t="s">
-        <v>136</v>
+        <v>39</v>
       </c>
       <c r="H119" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I119" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>141</v>
+      </c>
+      <c r="J119" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>21</v>
-      </c>
-      <c r="G120" t="s">
-        <v>22</v>
-      </c>
-      <c r="H120" t="s"/>
-      <c r="I120" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G120" t="s"/>
+      <c r="H120" t="s">
+        <v>25</v>
+      </c>
+      <c r="I120" t="s"/>
+      <c r="J120" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G121" t="s">
-        <v>136</v>
+        <v>39</v>
       </c>
       <c r="H121" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I121" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>141</v>
+      </c>
+      <c r="J121" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>21</v>
-      </c>
-      <c r="G122" t="s">
-        <v>22</v>
-      </c>
-      <c r="H122" t="s"/>
-      <c r="I122" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G122" t="s"/>
+      <c r="H122" t="s">
+        <v>25</v>
+      </c>
+      <c r="I122" t="s"/>
+      <c r="J122" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G123" t="s">
-        <v>136</v>
+        <v>39</v>
       </c>
       <c r="H123" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I123" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>141</v>
+      </c>
+      <c r="J123" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>21</v>
-      </c>
-      <c r="G124" t="s">
-        <v>25</v>
-      </c>
-      <c r="H124" t="s"/>
-      <c r="I124" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G124" t="s"/>
+      <c r="H124" t="s">
+        <v>28</v>
+      </c>
+      <c r="I124" t="s"/>
+      <c r="J124" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G125" t="s">
-        <v>136</v>
+        <v>39</v>
       </c>
       <c r="H125" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I125" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>141</v>
+      </c>
+      <c r="J125" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>21</v>
-      </c>
-      <c r="G126" t="s">
-        <v>25</v>
-      </c>
-      <c r="H126" t="s"/>
-      <c r="I126" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G126" t="s"/>
+      <c r="H126" t="s">
+        <v>28</v>
+      </c>
+      <c r="I126" t="s"/>
+      <c r="J126" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G127" t="s">
-        <v>136</v>
+        <v>39</v>
       </c>
       <c r="H127" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I127" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>141</v>
+      </c>
+      <c r="J127" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>21</v>
-      </c>
-      <c r="G128" t="s">
-        <v>25</v>
-      </c>
-      <c r="H128" t="s"/>
-      <c r="I128" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G128" t="s"/>
+      <c r="H128" t="s">
+        <v>28</v>
+      </c>
+      <c r="I128" t="s"/>
+      <c r="J128" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G129" t="s">
-        <v>136</v>
+        <v>39</v>
       </c>
       <c r="H129" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I129" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>141</v>
+      </c>
+      <c r="J129" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>21</v>
-      </c>
-      <c r="G130" t="s">
-        <v>25</v>
-      </c>
-      <c r="H130" t="s"/>
-      <c r="I130" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G130" t="s"/>
+      <c r="H130" t="s">
+        <v>28</v>
+      </c>
+      <c r="I130" t="s"/>
+      <c r="J130" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G131" t="s">
-        <v>136</v>
+        <v>39</v>
       </c>
       <c r="H131" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I131" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>141</v>
+      </c>
+      <c r="J131" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G132" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H132" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I132" t="s">
-        <v>162</v>
+        <v>16</v>
+      </c>
+      <c r="J132" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
